--- a/ExampleRows.xlsx
+++ b/ExampleRows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0AE4D-11FF-40F6-AA26-85D29B2221AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56066F4-9CCD-4464-AA15-83C2180162A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12450" yWindow="-14475" windowWidth="18900" windowHeight="10980" activeTab="2" xr2:uid="{927A3934-8AED-48D8-8E86-6C6B2C78244E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{927A3934-8AED-48D8-8E86-6C6B2C78244E}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -123,6 +123,39 @@
   </si>
   <si>
     <t>&gt;=10</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Small business</t>
+  </si>
+  <si>
+    <t>Business as usual</t>
+  </si>
+  <si>
+    <t>Fast deliver</t>
+  </si>
+  <si>
+    <t>Slow deliver</t>
+  </si>
+  <si>
+    <t>ToS 1</t>
+  </si>
+  <si>
+    <t>ToS 2</t>
+  </si>
+  <si>
+    <t>ToS 3</t>
+  </si>
+  <si>
+    <t>ToS 4</t>
+  </si>
+  <si>
+    <t>ToS 5</t>
   </si>
 </sst>
 </file>
@@ -177,7 +210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -331,12 +370,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -347,14 +440,33 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -364,16 +476,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="64"/>
       </left>
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -383,7 +521,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,25 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,6 +588,47 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,11 +962,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -827,7 +994,7 @@
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -838,7 +1005,7 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
@@ -878,10 +1045,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -909,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5588B9-FC99-4A0C-86FF-01AE7DC4DE61}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,16 +1089,17 @@
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -943,102 +1111,140 @@
       <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="15" t="s">
+      <c r="G3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="G4" s="34"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="39">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="40">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="40">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="40">
         <v>0.15</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
